--- a/data/trans_bre/P41C_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P41C_R-Dificultad-trans_bre.xlsx
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.488535550940201</v>
+        <v>-1.747654645740129</v>
       </c>
       <c r="D5" s="6" t="inlineStr"/>
     </row>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.444693539708931</v>
+        <v>8.123679363552867</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -594,10 +594,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>1.946385790202888</v>
+        <v>1.946385790202886</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.6537844609919238</v>
+        <v>0.6537844609919231</v>
       </c>
     </row>
     <row r="8">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.962718171224882</v>
+        <v>-2.134806610849097</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4640501850989813</v>
+        <v>-0.4588145670357423</v>
       </c>
     </row>
     <row r="9">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.362684615512981</v>
+        <v>5.065684813418164</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.559527982048088</v>
+        <v>4.060598495831216</v>
       </c>
     </row>
     <row r="10">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.535681450036112</v>
+        <v>-10.14356301237633</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.8257464997682201</v>
+        <v>-0.8332763037616695</v>
       </c>
     </row>
     <row r="12">
@@ -668,10 +668,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6335523365872896</v>
+        <v>0.7211928634164566</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.230727214627614</v>
+        <v>0.3091777250349116</v>
       </c>
     </row>
     <row r="13">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.736280029638519</v>
+        <v>-3.630066264353835</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6455457430460871</v>
+        <v>-0.649448699828138</v>
       </c>
     </row>
     <row r="15">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.649351950194795</v>
+        <v>3.794114268060504</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.06661401449507</v>
+        <v>2.230811301395764</v>
       </c>
     </row>
     <row r="16">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.04410428172660907</v>
+        <v>0.04410428172660977</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.01071072662793891</v>
+        <v>0.01071072662793908</v>
       </c>
     </row>
     <row r="17">
@@ -746,10 +746,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.436928909475328</v>
+        <v>-2.25816702737848</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.4449053682418765</v>
+        <v>-0.4239227570018523</v>
       </c>
     </row>
     <row r="18">
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.986198250794511</v>
+        <v>2.02351225002421</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.6781259753499654</v>
+        <v>0.7327916277083752</v>
       </c>
     </row>
     <row r="19">
